--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>566270.3948135577</v>
+        <v>604158.7250820805</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7788065.519662674</v>
+        <v>7813318.046736518</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>394.6660274398591</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -716,16 +716,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.10933173605038</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>52.12660924970112</v>
+        <v>174.7293217698193</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>68.40554518148485</v>
+        <v>30.15774997692665</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>130.9826845827117</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>4.578010772225666</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>374.4170182760198</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>381.8660176969973</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,22 +1339,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>62.65865258838473</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>101.4556968337277</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>71.43430199953104</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>384.0290916886127</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>147.3525275309938</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>163.9521757218092</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659352</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888196</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>28.46824604904426</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245684</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>215.611122386457</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225807</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225734</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752552</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>78.37744390510632</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>119.9348501475799</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647611</v>
       </c>
     </row>
     <row r="29">
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170514</v>
       </c>
       <c r="H31" t="n">
-        <v>82.14201637551416</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>94.21878984361686</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3244,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>169.9259850434498</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>46.16917954999361</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3569,7 +3569,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633422</v>
       </c>
     </row>
     <row r="39">
@@ -3661,13 +3661,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>29.18607610565425</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>7.264602967362848</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3797,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,7 +3907,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358962</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>34.71811217257645</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,25 +3977,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561543</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>85.5532963163069</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4198,10 +4198,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551359</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>954.2291820326056</v>
+        <v>1345.639120712262</v>
       </c>
       <c r="C2" t="n">
-        <v>920.1271132564331</v>
+        <v>1311.537051936089</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>875.6272671105339</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>476.9747141409792</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489133</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489133</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489133</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489133</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797696</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756291</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2196.141924826365</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>2196.141924826365</v>
       </c>
       <c r="W2" t="n">
-        <v>1074.529126782698</v>
+        <v>1791.286470237398</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.427067402413</v>
+        <v>1372.144006816708</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.4883484771094</v>
+        <v>1367.898287156766</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414798</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246753</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.611864851629</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677906</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397448</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064456</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768569</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.712964807981</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031422</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420221</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212429</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2855472264862</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>339.7238357097111</v>
+        <v>955.6037336452933</v>
       </c>
       <c r="D4" t="n">
-        <v>173.8458429112338</v>
+        <v>789.7257408468161</v>
       </c>
       <c r="E4" t="n">
-        <v>173.8458429112338</v>
+        <v>619.9677370975533</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>443.2606830593094</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>277.6694080851371</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755116</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>323.8657391213225</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>742.0756208892835</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2063.487540453623</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2410.994434423965</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.94640621472</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512716</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2028.825591091172</v>
       </c>
       <c r="U4" t="n">
-        <v>1463.871099427522</v>
+        <v>1852.331326677213</v>
       </c>
       <c r="V4" t="n">
-        <v>1176.915591297953</v>
+        <v>1565.375818547643</v>
       </c>
       <c r="W4" t="n">
-        <v>1176.915591297953</v>
+        <v>1565.375818547643</v>
       </c>
       <c r="X4" t="n">
-        <v>931.5238366313652</v>
+        <v>1319.984063881056</v>
       </c>
       <c r="Y4" t="n">
-        <v>704.1041659454734</v>
+        <v>1319.984063881056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1408.019692669128</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V5" t="n">
-        <v>1408.019692669128</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W5" t="n">
-        <v>1003.164238080161</v>
+        <v>2234.742998128394</v>
       </c>
       <c r="X5" t="n">
-        <v>584.0217746594717</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4789121470969</v>
+        <v>800.9901093678603</v>
       </c>
       <c r="C7" t="n">
-        <v>373.9172006303219</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="D7" t="n">
-        <v>373.9172006303219</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>204.1591968810591</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>204.1591968810591</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>38.5679219068868</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>38.5679219068868</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>983.6892855326716</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>738.2975308660841</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>738.2975308660841</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>904.4420949953732</v>
+        <v>936.2280884669766</v>
       </c>
       <c r="C8" t="n">
-        <v>526.2430866357572</v>
+        <v>902.126019690804</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020175</v>
+        <v>870.2566389056526</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890098</v>
+        <v>840.5222981043519</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851277</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851277</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851277</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851277</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851277</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576083</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>928.4913703274475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>928.4913703274475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>928.4913703274475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1383.544071626543</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1838.596772925639</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109476</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1754.944899109476</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1754.944899109476</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1754.944899109476</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1350.089444520509</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X8" t="n">
-        <v>930.9469810998195</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y8" t="n">
-        <v>926.7012614398769</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230031</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851277</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897037</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3366467865964</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>637.7749352698213</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>471.8969424713439</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>302.1389387220812</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>125.4318846838374</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838374</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851277</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851277</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851277</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255693</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683214</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908995</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925639</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.17895163101</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.17895163101</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.299505209466</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1292.866504462571</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1292.866504462571</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1229.574936191475</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.574936191475</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1002.155265505583</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.308741984731</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168154</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342599</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.481739500894</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>600.6143099101018</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2164785333653</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392931</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892152</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892152</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510709</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344105</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928798</v>
+        <v>4616.731606928795</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245815</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179641</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590675</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169986</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469639</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5191,22 +5191,22 @@
         <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C14" t="n">
         <v>2084.815921872688</v>
@@ -5270,10 +5270,10 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693464</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.99017326377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097166</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429653</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363479</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774513</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580463</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412712</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935312</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.51439535199</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847294</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>516.9624360939372</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>115.564604717201</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5555,10 +5555,10 @@
         <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353821</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653474</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987274</v>
+        <v>806.229814098728</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819523</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>467.790109783475</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
         <v>96.73597668111518</v>
@@ -5707,16 +5707,16 @@
         <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W19" t="n">
         <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177145</v>
+        <v>998.0484328177151</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>498.7803825855955</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1573.840348838455</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2730.888184049006</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>3856.619167485453</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>4836.798834055759</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4836.798834055759</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
         <v>4836.798834055759</v>
@@ -5777,25 +5777,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>965.4711828007315</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>792.9094712839563</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>627.0314784854791</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935314</v>
+        <v>457.2734747362163</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>280.5664206979725</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>114.9751457238002</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111518</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829512</v>
+        <v>1630.101226872198</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519719</v>
       </c>
     </row>
     <row r="23">
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1083.7810821021</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>911.2193705853252</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>745.3413777868479</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>575.5833740375853</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1748.411126173566</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1503.019371506979</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.599700821087</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903952</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736202</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2880215932364</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>507.5300178439736</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6412,10 +6412,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
         <v>1907.65249487557</v>
@@ -6427,7 +6427,7 @@
         <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1035.728611060351</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C31" t="n">
-        <v>863.1668995435763</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D31" t="n">
-        <v>697.288906745099</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E31" t="n">
-        <v>527.5309029958363</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F31" t="n">
-        <v>350.8238489575925</v>
+        <v>126.8499155856333</v>
       </c>
       <c r="G31" t="n">
-        <v>185.2325739834202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.96690046523</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1227.547229779339</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>875.8255515988633</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C34" t="n">
-        <v>703.2638400820882</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D34" t="n">
-        <v>537.3858472836109</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E34" t="n">
-        <v>367.6278435343481</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F34" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2623.749955382047</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2377.870508960502</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2099.437508213608</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1812.482000084038</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W34" t="n">
-        <v>1540.45559567033</v>
+        <v>1591.69782075463</v>
       </c>
       <c r="X34" t="n">
-        <v>1295.063841003742</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1067.64417031785</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.727725908489</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1660143917137</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932364</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439736</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1680.357769979955</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1434.966015313368</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.546344627476</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,7 +7160,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.336856393764</v>
+        <v>949.5782250957675</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769891</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>451.8971520785118</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.966900465231</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127512</v>
+        <v>1141.396843814755</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7397,64 +7397,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D43" t="n">
-        <v>842.879296567409</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181462</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799023</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.82296380573</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2683.851649999258</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2437.972203577714</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U43" t="n">
-        <v>2159.539202830819</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V43" t="n">
-        <v>1872.583694701249</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.557290287541</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.557290287541</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601649</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004225</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436387</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934735</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="N44" t="n">
-        <v>3417.209496257025</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O44" t="n">
-        <v>4397.389162827331</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1039.174348374283</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>866.6126368575084</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>700.7346440590311</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>530.9766403097684</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>354.2695862715246</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>188.6783112973523</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1230.992967093271</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804495</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854555</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>296.9562613211783</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>44.81797281351874</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314096</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>441.0775086564033</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314096</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314096</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.221800666271</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314096</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428638</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807323</v>
+        <v>309.6062697457076</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>406.1054605095761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,19 +11303,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="N44" t="n">
-        <v>980.0845558811006</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>184.7831561774882</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>185.1957776566222</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>49.73195639979821</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>267.5985112554886</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>267.5985112554907</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>268.0111327346224</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>267.5985112554903</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>185.19577765662</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142712</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.592177662726</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>96.56253959275502</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>44.2843627229126</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
     </row>
     <row r="29">
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H31" t="n">
-        <v>56.36113619101506</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>63.43016517136645</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>114.159968004824</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>223.1369608195778</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>141.6500182959531</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9308428424069</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>52.94985625022233</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>667905.3702498949</v>
+        <v>675680.7823712449</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>667905.3702498949</v>
+        <v>677882.5718960288</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>669355.6140753888</v>
+        <v>677882.5718960288</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658207.48564393</v>
+        <v>658207.4856439298</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658207.4856439302</v>
+        <v>658207.48564393</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>685984.5936836629</v>
+        <v>685984.5936836628</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685984.5936836629</v>
+        <v>685984.5936836628</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>685984.5936836631</v>
+        <v>685984.5936836629</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>685984.5936836629</v>
+        <v>685984.5936836628</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>685984.5936836629</v>
+        <v>685984.5936836628</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294881.0259397247</v>
+        <v>294881.0259397246</v>
       </c>
       <c r="C2" t="n">
         <v>294881.0259397246</v>
@@ -26320,37 +26320,37 @@
         <v>294881.0259397247</v>
       </c>
       <c r="E2" t="n">
-        <v>278038.143884422</v>
+        <v>278038.1438844219</v>
       </c>
       <c r="F2" t="n">
         <v>278038.143884422</v>
       </c>
       <c r="G2" t="n">
-        <v>278038.1438844219</v>
+        <v>278038.143884422</v>
       </c>
       <c r="H2" t="n">
         <v>278038.143884422</v>
       </c>
       <c r="I2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="K2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="L2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="M2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755439</v>
       </c>
       <c r="N2" t="n">
         <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="P2" t="n">
         <v>289771.6712755437</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039038</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739058</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200276</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520273</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485614</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784446</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509964</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742619</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966616</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
+        <v>52352.49019908698</v>
+      </c>
+      <c r="F4" t="n">
         <v>52352.490199087</v>
       </c>
-      <c r="F4" t="n">
-        <v>52352.49019908701</v>
-      </c>
       <c r="G4" t="n">
+        <v>52352.49019908698</v>
+      </c>
+      <c r="H4" t="n">
         <v>52352.490199087</v>
-      </c>
-      <c r="H4" t="n">
-        <v>52352.49019908699</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>54561.82510962275</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="M4" t="n">
-        <v>54561.82510962275</v>
-      </c>
       <c r="N4" t="n">
+        <v>54561.82510962281</v>
+      </c>
+      <c r="O4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="O4" t="n">
-        <v>54561.82510962272</v>
-      </c>
       <c r="P4" t="n">
-        <v>54561.82510962269</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814208</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484697</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
         <v>73519.34227764752</v>
@@ -26506,10 +26506,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100431.742508372</v>
+        <v>-139872.7492965831</v>
       </c>
       <c r="C6" t="n">
-        <v>41759.55815133785</v>
+        <v>55317.76275827196</v>
       </c>
       <c r="D6" t="n">
-        <v>35269.06292259067</v>
+        <v>72658.30713217786</v>
       </c>
       <c r="E6" t="n">
-        <v>-71632.98234433989</v>
+        <v>-9645.322357223706</v>
       </c>
       <c r="F6" t="n">
-        <v>152166.3114076875</v>
+        <v>152089.7528528907</v>
       </c>
       <c r="G6" t="n">
-        <v>152166.3114076875</v>
+        <v>152089.7528528906</v>
       </c>
       <c r="H6" t="n">
-        <v>152166.3114076875</v>
+        <v>152089.7528528906</v>
       </c>
       <c r="I6" t="n">
-        <v>139126.891927289</v>
+        <v>139103.6675879062</v>
       </c>
       <c r="J6" t="n">
-        <v>46477.14221513836</v>
+        <v>-3139.4462648682</v>
       </c>
       <c r="K6" t="n">
-        <v>157491.6075601285</v>
+        <v>143654.3746529014</v>
       </c>
       <c r="L6" t="n">
-        <v>148543.9964716186</v>
+        <v>157468.3832207459</v>
       </c>
       <c r="M6" t="n">
-        <v>-29299.37905033913</v>
+        <v>22478.43860774263</v>
       </c>
       <c r="N6" t="n">
-        <v>157491.6075601285</v>
+        <v>157468.3832207457</v>
       </c>
       <c r="O6" t="n">
-        <v>157491.6075601286</v>
+        <v>157468.3832207458</v>
       </c>
       <c r="P6" t="n">
-        <v>157491.6075601286</v>
+        <v>157468.3832207458</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314096</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973051996</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130528</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051996</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130528</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051996</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130528</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>34.77096995342868</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>322.0939307272927</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>223.5220614897246</v>
+        <v>100.9193489696064</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,10 +27667,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>188.2245344746684</v>
+        <v>226.4723296792266</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>58.91774794908557</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>83.19533896084575</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>59.34402981239111</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>41.72273759788698</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>206.6474877811867</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="39">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804495</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854555</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>296.9562613211783</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>44.81797281351874</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314096</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>441.0775086564033</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314096</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314096</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.221800666271</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314096</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428638</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807323</v>
+        <v>309.6062697457076</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>406.1054605095761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="N44" t="n">
-        <v>980.0845558811006</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
